--- a/kvp-win32/bin/templates/people-and-taxes.xlsx
+++ b/kvp-win32/bin/templates/people-and-taxes.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>Тарифы</t>
-  </si>
-  <si>
     <t>ЛС</t>
   </si>
   <si>
@@ -92,6 +89,10 @@
   </si>
   <si>
     <t>Социальный наем:</t>
+  </si>
+  <si>
+    <t>Ведомость расчетов с жильцами общежития
+ТОГБОУ СПО "Многоотраслевой техниум"</t>
   </si>
 </sst>
 </file>
@@ -101,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00_р_."/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,12 +138,20 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -349,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -417,44 +426,47 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -759,7 +771,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="A2" sqref="A2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -782,176 +794,190 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+    <row r="1" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
     </row>
-    <row r="2" spans="1:17" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+    <row r="2" spans="1:17" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
-    <row r="3" spans="1:17" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:17" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="G3" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="G3" s="36" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="G4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
-    <row r="4" spans="1:17" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
+    <row r="5" spans="1:17" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="G4" s="36" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="G5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
-    <row r="5" spans="1:17" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+    <row r="6" spans="1:17" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="G5" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-    </row>
-    <row r="6" spans="1:17" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:17" s="2" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="D8" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25" t="s">
+      <c r="G8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="Q8" s="31" t="s">
         <v>14</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="32"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="32"/>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1012,15 +1038,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:N8"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A5:C5"/>
@@ -1030,16 +1057,15 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:N8"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/kvp-win32/bin/templates/people-and-taxes.xlsx
+++ b/kvp-win32/bin/templates/people-and-taxes.xlsx
@@ -99,9 +99,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00_р_."/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -175,12 +172,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -190,53 +185,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -247,9 +199,18 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -259,10 +220,32 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -273,7 +256,18 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -283,7 +277,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -298,10 +292,64 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -314,158 +362,124 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,7 +785,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q2"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -795,259 +809,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
-    <row r="2" spans="1:17" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+    <row r="2" spans="1:17" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
     </row>
-    <row r="3" spans="1:17" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:17" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="G3" s="27" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
-    <row r="4" spans="1:17" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:17" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="G4" s="27" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="G4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:17" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:17" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="G5" s="27" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="G5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:17" s="25" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:17" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:17" s="2" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="29" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="3" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="32"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="34"/>
     </row>
-    <row r="10" spans="1:17" s="4" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7"/>
+    <row r="10" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="36"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
+    <row r="11" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
+    <row r="12" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A5:C5"/>
@@ -1064,8 +1070,16 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:N8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
